--- a/jumby_baseline/data/JB_seagrass.xlsx
+++ b/jumby_baseline/data/JB_seagrass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="172">
   <si>
     <t>date</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>jan</t>
-  </si>
-  <si>
-    <t>caul</t>
   </si>
   <si>
     <t>tun</t>
@@ -1329,7 +1326,7 @@
         <v>44448.0</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8">
@@ -31457,7 +31454,7 @@
         <v>41</v>
       </c>
       <c r="H778" s="24">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="I778" s="30" t="str">
         <f>VLOOKUP(G778,lookups!$2:$111,2,FALSE)</f>
@@ -31489,7 +31486,7 @@
         <v>39</v>
       </c>
       <c r="H779" s="24">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="I779" s="30" t="str">
         <f>VLOOKUP(G779,lookups!$2:$111,2,FALSE)</f>
@@ -31649,7 +31646,7 @@
         <v>40</v>
       </c>
       <c r="H784" s="24">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="I784" s="30" t="str">
         <f>VLOOKUP(G784,lookups!$2:$111,2,FALSE)</f>
@@ -32321,7 +32318,7 @@
         <v>38</v>
       </c>
       <c r="H805" s="24">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="I805" s="30" t="str">
         <f>VLOOKUP(G805,lookups!$2:$111,2,FALSE)</f>
@@ -37702,18 +37699,18 @@
         <v>8.0</v>
       </c>
       <c r="G969" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H969" s="24">
         <v>12.0</v>
       </c>
       <c r="I969" s="30" t="str">
         <f>VLOOKUP(G969,lookups!$2:$111,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Caulerpa spp.</v>
       </c>
       <c r="J969" s="30" t="str">
         <f>VLOOKUP(G969,lookups!$2:$111,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Algae</v>
       </c>
     </row>
     <row r="970">
@@ -38322,7 +38319,7 @@
         <v>2.0</v>
       </c>
       <c r="G989" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H989" s="24">
         <v>2.0</v>
@@ -39996,7 +39993,7 @@
         <v>4.0</v>
       </c>
       <c r="G1043" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1043" s="24">
         <v>1.0</v>
@@ -44522,18 +44519,18 @@
         <v>5.0</v>
       </c>
       <c r="G1189" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H1189" s="24">
         <v>5.0</v>
       </c>
       <c r="I1189" s="30" t="str">
         <f>VLOOKUP(G1189,lookups!$2:$111,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Caulerpa spp.</v>
       </c>
       <c r="J1189" s="30" t="str">
         <f>VLOOKUP(G1189,lookups!$2:$111,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Algae</v>
       </c>
     </row>
     <row r="1190">
@@ -46630,7 +46627,7 @@
         <v>2.0</v>
       </c>
       <c r="G1257" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1257" s="24">
         <v>1.0</v>
@@ -48273,7 +48270,7 @@
         <v>3.0</v>
       </c>
       <c r="G1310" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1310" s="24">
         <v>3.0</v>
@@ -48521,7 +48518,7 @@
         <v>5.0</v>
       </c>
       <c r="G1318" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1318" s="24">
         <v>15.0</v>
@@ -49110,7 +49107,7 @@
         <v>9.0</v>
       </c>
       <c r="G1337" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1337" s="24">
         <v>3.0</v>
@@ -49454,7 +49451,7 @@
         <v>41</v>
       </c>
       <c r="H1348" s="24">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="I1348" s="30" t="str">
         <f>VLOOKUP(G1348,lookups!$2:$111,2,FALSE)</f>
@@ -49857,7 +49854,7 @@
         <v>40</v>
       </c>
       <c r="H1361" s="24">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="I1361" s="30" t="str">
         <f>VLOOKUP(G1361,lookups!$2:$111,2,FALSE)</f>
@@ -50133,7 +50130,7 @@
         <v>6.0</v>
       </c>
       <c r="G1370" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1370" s="24">
         <v>3.0</v>
@@ -50784,7 +50781,7 @@
         <v>10.0</v>
       </c>
       <c r="G1391" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1391" s="24">
         <v>5.0</v>
@@ -55224,22 +55221,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>66</v>
       </c>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -55278,7 +55275,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="24">
         <v>1.0</v>
@@ -55298,7 +55295,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="24">
         <v>1.0</v>
@@ -55318,7 +55315,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="24">
         <v>1.0</v>
@@ -55338,7 +55335,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="24">
         <v>1.0</v>
@@ -55358,7 +55355,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="24">
         <v>3.0</v>
@@ -55378,7 +55375,7 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="24">
         <v>1.0</v>
@@ -55398,7 +55395,7 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="24">
         <v>1.0</v>
@@ -55418,7 +55415,7 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="24">
         <v>2.0</v>
@@ -55438,7 +55435,7 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="24">
         <v>1.0</v>
@@ -55458,7 +55455,7 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="24">
         <v>1.0</v>
@@ -55478,7 +55475,7 @@
         <v>2.0</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="24">
         <v>1.0</v>
@@ -55498,7 +55495,7 @@
         <v>2.0</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="24">
         <v>1.0</v>
@@ -55518,7 +55515,7 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="24">
         <v>1.0</v>
@@ -55538,7 +55535,7 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="24">
         <v>1.0</v>
@@ -55558,7 +55555,7 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="24">
         <v>1.0</v>
@@ -55578,7 +55575,7 @@
         <v>2.0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="24">
         <v>1.0</v>
@@ -55605,13 +55602,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>80</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -55639,475 +55636,475 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="C3" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>87</v>
-      </c>
       <c r="C4" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>89</v>
-      </c>
       <c r="C5" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="33" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="C7" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>96</v>
-      </c>
       <c r="C8" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>98</v>
-      </c>
       <c r="C9" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="C11" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>105</v>
-      </c>
       <c r="C12" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>107</v>
-      </c>
       <c r="C13" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>109</v>
-      </c>
       <c r="C14" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>111</v>
-      </c>
       <c r="C15" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>113</v>
-      </c>
       <c r="C16" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>115</v>
-      </c>
       <c r="C17" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>117</v>
-      </c>
       <c r="C18" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>119</v>
-      </c>
       <c r="C19" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>121</v>
-      </c>
       <c r="C20" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>123</v>
-      </c>
       <c r="C21" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>125</v>
-      </c>
       <c r="C22" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="C23" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>129</v>
-      </c>
       <c r="C24" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>131</v>
-      </c>
       <c r="C25" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>133</v>
-      </c>
       <c r="C26" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>135</v>
-      </c>
       <c r="C27" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>137</v>
-      </c>
       <c r="C28" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="C29" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>142</v>
-      </c>
       <c r="C30" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="C31" s="33" t="s">
         <v>144</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>147</v>
-      </c>
       <c r="C32" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>149</v>
-      </c>
       <c r="C33" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>151</v>
-      </c>
       <c r="C34" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="C35" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>155</v>
-      </c>
       <c r="C36" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="C37" s="33" t="s">
         <v>157</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>160</v>
-      </c>
       <c r="C38" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>162</v>
-      </c>
       <c r="C39" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>164</v>
-      </c>
       <c r="C40" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="33" t="s">
-        <v>166</v>
-      </c>
       <c r="C41" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="C42" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>170</v>
-      </c>
       <c r="C43" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>172</v>
-      </c>
       <c r="C44" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45">
